--- a/data/case1/2/cost_14.xlsx
+++ b/data/case1/2/cost_14.xlsx
@@ -56,20 +56,20 @@
   <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>148.88359002627899</v>
+        <v>148.89827879314171</v>
       </c>
       <c r="B1" s="0">
-        <v>4.5076335788447608</v>
+        <v>4.4757474183981794</v>
       </c>
       <c r="C1" s="0">
-        <v>1.0494129158512722</v>
+        <v>1.1219178082191781</v>
       </c>
     </row>
   </sheetData>
